--- a/medicine/Enfance/Klaus_Ensikat/Klaus_Ensikat.xlsx
+++ b/medicine/Enfance/Klaus_Ensikat/Klaus_Ensikat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Klaus Ensikat (né le 16 janvier 1937 à Berlin) est un graphiste et illustrateur allemand de littérature d'enfance et de jeunesse. Il est lauréat en 1996 du prestigieux prix international, le Prix Hans Christian Andersen, catégorie Illustration.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études d'art dans le quartier de Berlin-Oberschöneweide. Il devient enseignant en art.
 Il a travaillé comme dessinateur de presse, et comme illustrateur de littérature pour la jeunesse.
@@ -543,7 +557,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Livres traduits en français
 Alfred Konner, Le Mariage du paon (Die Hochzeit des Pfaus, 1972), Éditions la Farandole, 1975
@@ -579,14 +595,16 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pomme d'Or de Bratislava 1973[1] de la Biennale d'illustration de Bratislava (BIB) pour ses illustrations de Die Hochzeit des Pfaus (texte de Alfred Könner)
-Grand Prix de Bratislava 1979[1] de la Biennale d'illustration de Bratislava (BIB) pour Der kleine Däumling und andere Märchen (texte de Charles Perrault)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pomme d'Or de Bratislava 1973 de la Biennale d'illustration de Bratislava (BIB) pour ses illustrations de Die Hochzeit des Pfaus (texte de Alfred Könner)
+Grand Prix de Bratislava 1979 de la Biennale d'illustration de Bratislava (BIB) pour Der kleine Däumling und andere Märchen (texte de Charles Perrault)
 Rattenfänger-Literaturpreis Hameln 1986
 Prix Gutenberg de la ville de Leipzig 1989
-Pomme d'Or de Bratislava 1991[1] de la Biennale d'illustration de Bratislava (BIB) pour ses illustrations de Jeder nach seiner Art (texte de Hoffman von Fallersleben)
-Premio Grafico (Prix Graphique) du Prix BolognaRagazzi (Foire du livre de jeunesse de Bologne) 1992[2] pour ses illustrations de Jeder nach seiner Art (texte de Hoffman von Fallersleben)
+Pomme d'Or de Bratislava 1991 de la Biennale d'illustration de Bratislava (BIB) pour ses illustrations de Jeder nach seiner Art (texte de Hoffman von Fallersleben)
+Premio Grafico (Prix Graphique) du Prix BolognaRagazzi (Foire du livre de jeunesse de Bologne) 1992 pour ses illustrations de Jeder nach seiner Art (texte de Hoffman von Fallersleben)
 Deutscher Jugendliteraturpreis 1995
 Prix Hans Christian Andersen, catégorie Illustration, 1996</t>
         </is>
